--- a/assets/parameters.xlsx
+++ b/assets/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>H:\Phthon\Projects\Instagram_like_follow\assets</t>
+  </si>
+  <si>
+    <t>File path of the directory containing "insta_search_found.xlsx"</t>
+  </si>
+  <si>
+    <t>Follow limit per each go</t>
+  </si>
+  <si>
+    <t>Time limit to wait until next go (in minutes)</t>
   </si>
 </sst>
 </file>
@@ -32,15 +41,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,12 +63,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,6 +101,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="File path of the directory containing &quot;insta_search_found.xlsx&quot;"/>
+    <tableColumn id="2" name="Follow limit per each go"/>
+    <tableColumn id="3" name="Time limit to wait until next go (in minutes)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,21 +402,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="108.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/assets/parameters.xlsx
+++ b/assets/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>60</v>

--- a/assets/parameters.xlsx
+++ b/assets/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8610" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,10 +431,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
